--- a/biology/Médecine/Walter_Bradford_Cannon/Walter_Bradford_Cannon.xlsx
+++ b/biology/Médecine/Walter_Bradford_Cannon/Walter_Bradford_Cannon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Bradford Cannon (19 octobre 1871 - 1er octobre 1945) est un physiologiste américain, professeur à la Harvard Medical School.
 C'est un des précurseurs des rayons X. 
@@ -514,12 +526,14 @@
           <t>La sérendipité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est lui qui introduit le mot et le concept de sérendipité dans le monde scientifique médical en 1945, par un chapitre « Gains from Serendipity » de The Way of Investigator. A Scientist's Experiences in Medical Research. 
-Il donne comme exemples les découvertes de Christophe Colomb, Luigi Galvani, Hans Christian Ørsted, Michael Faraday, Claude Bernard, Charles Richet, Louis Pasteur[1].
+Il donne comme exemples les découvertes de Christophe Colomb, Luigi Galvani, Hans Christian Ørsted, Michael Faraday, Claude Bernard, Charles Richet, Louis Pasteur.
 Sa définition de la sérendipité : « La faculté ou la chance de trouver la preuve de ses idées de manière inattendue, ou bien de découvrir avec surprise de nouveaux objets ou relations sans les avoir cherchés. »
-Il insiste sur l'importance de la sagacité [2].
+Il insiste sur l'importance de la sagacité .
 </t>
         </is>
       </c>
